--- a/teacherslife-rates.xlsx
+++ b/teacherslife-rates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Infinity\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Infinity\Desktop\Jainam_Project\jainam_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -61,13 +61,13 @@
     <t>CoverageTerm</t>
   </si>
   <si>
-    <t xml:space="preserve"> CoverageAmount</t>
-  </si>
-  <si>
     <t>SmokerStatus</t>
   </si>
   <si>
     <t>MonthlyPremium</t>
+  </si>
+  <si>
+    <t>CoverageAmount</t>
   </si>
 </sst>
 </file>
@@ -424,16 +424,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.4">
